--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,131 +19,131 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="65">
   <si>
     <t>设置地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>主机发送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>从机应答</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>00H</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>01H</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>xxH</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CRCH</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CRCL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>打开LED和灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>02H</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>关闭LED和灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>03H</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>读取红外</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>04H</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>00H/01H</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>05H</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>06H</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>07H</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>…………</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>命令</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>校验</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>发送方</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>0:红外无信号 1:红外有信号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>00H是通用地址，不管当前机器的地址是什么都会应答，用于接入总线前设置地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>获取地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Size4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Size3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Size2</t>
@@ -153,23 +153,23 @@
   </si>
   <si>
     <t>weith1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>weith0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>height1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>height0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>X1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -186,15 +186,15 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Y1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Y0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -211,7 +211,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -228,7 +228,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -245,7 +245,7 @@
       </rPr>
       <t>1022</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -262,27 +262,27 @@
       </rPr>
       <t>1023</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FSize4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FSize3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FSize2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FSize1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Status1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -299,43 +299,43 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FSize:图片文件大小，单位字节 Fsize=Size+12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Size:图片大小，单位字节，X,Y,图片位置X:0-399,Y:0-239 width,height图片宽高，width:1-400,height:1-240，Status：0成功</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Index:数据包序号0开始按序号递增，Data数据包内容，不足1024个字节的包使用0补齐，Status：0成功</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>开始更新BMP图片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>发送BMP图片数据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>结束更新BMP图片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>开始更新JPG图片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>发送JPG图片数据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>结束更新JPG图片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -363,7 +363,7 @@
       </rPr>
       <t>H</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -391,7 +391,7 @@
       </rPr>
       <t>H</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -419,7 +419,7 @@
       </rPr>
       <t>H</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -447,19 +447,27 @@
       </rPr>
       <t>H</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,133 +671,133 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1100,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1187,10 +1195,10 @@
       <c r="AB3" s="5"/>
     </row>
     <row r="4" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1218,20 +1226,20 @@
       <c r="T4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="31"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="35"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
@@ -1261,14 +1269,14 @@
       <c r="T5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="31"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="35"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -1300,10 +1308,10 @@
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1333,20 +1341,20 @@
       <c r="T7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="30" t="s">
+      <c r="U7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="31"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="35"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="12" t="s">
         <v>2</v>
       </c>
@@ -1376,14 +1384,14 @@
       <c r="T8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="31"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="35"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
@@ -1415,10 +1423,10 @@
       <c r="AB9" s="5"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
@@ -1446,18 +1454,18 @@
       <c r="T10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="35"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="43"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="12" t="s">
         <v>2</v>
       </c>
@@ -1485,14 +1493,14 @@
       <c r="T11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="35"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="43"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
@@ -1524,10 +1532,10 @@
       <c r="AB12" s="5"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1555,18 +1563,18 @@
       <c r="T13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="35"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="43"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="12" t="s">
         <v>2</v>
       </c>
@@ -1594,14 +1602,14 @@
       <c r="T14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="35"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="43"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B15" s="14"/>
@@ -1633,10 +1641,10 @@
       <c r="AB15" s="5"/>
     </row>
     <row r="16" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="6" t="s">
         <v>1</v>
       </c>
@@ -1664,20 +1672,20 @@
       <c r="T16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U16" s="30" t="s">
+      <c r="U16" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="31"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="12" t="s">
         <v>2</v>
       </c>
@@ -1707,14 +1715,14 @@
       <c r="T17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="31"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="35"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
@@ -1746,10 +1754,10 @@
       <c r="AB18" s="5"/>
     </row>
     <row r="19" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="6" t="s">
         <v>1</v>
       </c>
@@ -1801,20 +1809,20 @@
       <c r="T19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U19" s="30" t="s">
+      <c r="U19" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="31"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="35"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="12" t="s">
         <v>2</v>
       </c>
@@ -1844,14 +1852,14 @@
       <c r="T20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="31"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="35"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B21" s="14"/>
@@ -1883,10 +1891,10 @@
       <c r="AB21" s="5"/>
     </row>
     <row r="22" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6" t="s">
         <v>1</v>
       </c>
@@ -1938,20 +1946,20 @@
       <c r="T22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="30" t="s">
+      <c r="U22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="31"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="35"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="12" t="s">
         <v>2</v>
       </c>
@@ -1981,14 +1989,14 @@
       <c r="T23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="31"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="35"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
@@ -2020,10 +2028,10 @@
       <c r="AB24" s="5"/>
     </row>
     <row r="25" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="6" t="s">
         <v>1</v>
       </c>
@@ -2051,20 +2059,20 @@
       <c r="T25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="30" t="s">
+      <c r="U25" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="31"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="35"/>
     </row>
     <row r="26" spans="2:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="18" t="s">
         <v>2</v>
       </c>
@@ -2100,27 +2108,27 @@
       <c r="T26" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="33"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="39"/>
     </row>
     <row r="27" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="30" t="s">
         <v>61</v>
       </c>
       <c r="G27" s="23" t="s">
@@ -2165,27 +2173,27 @@
       <c r="T27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U27" s="30" t="s">
+      <c r="U27" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="31"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="35"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="30" t="s">
         <v>61</v>
       </c>
       <c r="G28" s="24" t="s">
@@ -2208,14 +2216,14 @@
       <c r="T28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="31"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="35"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="14"/>
@@ -2247,17 +2255,17 @@
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G30" s="9" t="s">
@@ -2302,27 +2310,27 @@
       <c r="T30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U30" s="30" t="s">
+      <c r="U30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="31"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="35"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -2345,14 +2353,14 @@
       <c r="T31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="31"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="35"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="14"/>
@@ -2384,17 +2392,17 @@
       <c r="AB32" s="5"/>
     </row>
     <row r="33" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="30" t="s">
         <v>63</v>
       </c>
       <c r="G33" s="10"/>
@@ -2415,27 +2423,27 @@
       <c r="T33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U33" s="30" t="s">
+      <c r="U33" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="31"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="35"/>
     </row>
     <row r="34" spans="2:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="31" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="25" t="s">
@@ -2464,23 +2472,20 @@
       <c r="T34" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="33"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="U27:AB28"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="U30:AB31"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="U33:AB34"/>
+    <mergeCell ref="U25:AB26"/>
+    <mergeCell ref="U10:AB11"/>
+    <mergeCell ref="U13:AB14"/>
     <mergeCell ref="U4:AB5"/>
     <mergeCell ref="B25:C26"/>
     <mergeCell ref="G2:L2"/>
@@ -2497,11 +2502,14 @@
     <mergeCell ref="U16:AB17"/>
     <mergeCell ref="U7:AB8"/>
     <mergeCell ref="U22:AB23"/>
-    <mergeCell ref="U25:AB26"/>
-    <mergeCell ref="U10:AB11"/>
-    <mergeCell ref="U13:AB14"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="U27:AB28"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="U30:AB31"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="U33:AB34"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2514,7 +2522,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2527,7 +2535,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>